--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\TDD\nom_projet\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4369A97-3AB2-4257-8671-5E18E48F791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE3E1C-D230-4498-A473-46F540278A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Reception cahier des charges, mise en place des documents de base</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -160,24 +163,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -202,12 +192,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E38"/>
+  <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -528,7 +524,9 @@
         <v>45145</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
@@ -791,18 +789,18 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7">
         <v>45172</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3">
         <v>45173</v>
@@ -812,7 +810,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
         <v>45174</v>
@@ -822,7 +820,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3">
         <v>45175</v>
@@ -832,7 +830,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
         <v>45176</v>
@@ -842,7 +840,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" s="3">
         <v>45177</v>
@@ -852,7 +850,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="3">
         <v>45178</v>
@@ -860,14 +858,46 @@
       <c r="D36" s="2"/>
       <c r="E36" s="5"/>
     </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45179</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="5"/>
+    </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7">
+        <v>45180</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="13">
-        <f>SUM(D3:D37)</f>
+      <c r="D40" s="6">
+        <f>SUM(D3:D39)</f>
         <v>0</v>
       </c>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE3E1C-D230-4498-A473-46F540278A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFEB076-F7D5-4369-9FDF-6DAADD2A2BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -74,7 +74,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Reception cahier des charges, mise en place des documents de base</t>
+    <t>Nbr de café</t>
+  </si>
+  <si>
+    <t>Reception cahier des charges, mise en place des documents de base, recherche d'information par rapport à la puissance du moteur</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -192,18 +195,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E41"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -499,10 +493,11 @@
     <col min="2" max="2" width="10.73046875" style="1"/>
     <col min="3" max="3" width="11.265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="154.73046875" customWidth="1"/>
+    <col min="5" max="5" width="144.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -515,8 +510,11 @@
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -525,10 +523,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -537,8 +538,9 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -547,8 +549,9 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -557,8 +560,9 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -567,8 +571,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -577,8 +582,9 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,8 +593,9 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -597,8 +604,9 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -607,8 +615,9 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
@@ -617,8 +626,9 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
@@ -627,8 +637,9 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -637,8 +648,9 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -647,8 +659,9 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -657,8 +670,9 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -667,8 +681,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -677,8 +692,9 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -687,8 +703,9 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -697,8 +714,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -707,8 +725,9 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -717,8 +736,9 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
@@ -727,8 +747,9 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
@@ -737,8 +758,9 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
@@ -747,8 +769,9 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -757,8 +780,9 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
@@ -767,8 +791,9 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
@@ -777,8 +802,9 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
@@ -787,8 +813,9 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
         <v>8</v>
       </c>
@@ -797,8 +824,9 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -807,8 +835,9 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -817,8 +846,9 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
@@ -827,8 +857,9 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -837,8 +868,9 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
@@ -847,8 +879,9 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -857,8 +890,9 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
@@ -867,8 +901,9 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -877,14 +912,12 @@
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
@@ -892,12 +925,10 @@
         <f>SUM(D3:D39)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
+      <c r="F40">
+        <f>SUM(F3:F38)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFEB076-F7D5-4369-9FDF-6DAADD2A2BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F52D608-1FF0-4AFE-840D-C73807361794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -77,7 +77,10 @@
     <t>Nbr de café</t>
   </si>
   <si>
-    <t>Reception cahier des charges, mise en place des documents de base, recherche d'information par rapport à la puissance du moteur</t>
+    <t>Reception et analyse du cahier des charges, mise en place des documents de base, recherche d'informations par rapport à la puissance du moteur et des LEDs</t>
+  </si>
+  <si>
+    <t>Correction du planning, recherche d'informations et de composants pour le driver de moteur pas à pas, meeting d'une heure</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -521,7 +524,9 @@
       <c r="C3" s="3">
         <v>45145</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
@@ -536,9 +541,15 @@
       <c r="C4" s="3">
         <v>45146</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
@@ -923,11 +934,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F52D608-1FF0-4AFE-840D-C73807361794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56366BC9-36CA-4218-A324-1863D5BE81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>Reception et analyse du cahier des charges, mise en place des documents de base, recherche d'informations par rapport à la puissance du moteur et des LEDs</t>
   </si>
   <si>
-    <t>Correction du planning, recherche d'informations et de composants pour le driver de moteur pas à pas, meeting d'une heure</t>
+    <t>Correction du planning, recherche d'informations et de composants pour la pré-étude, meeting d'une heure</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -525,7 +525,7 @@
         <v>45145</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -542,7 +542,7 @@
         <v>45146</v>
       </c>
       <c r="D4" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56366BC9-36CA-4218-A324-1863D5BE81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9DADD8-7EEC-4E80-B093-CF53F2EFE89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Correction du planning, recherche d'informations et de composants pour la pré-étude, meeting d'une heure</t>
+  </si>
+  <si>
+    <t>Recherche d'information pour la pré-étude</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -558,9 +561,15 @@
       <c r="C5" s="3">
         <v>45147</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
@@ -934,11 +943,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9DADD8-7EEC-4E80-B093-CF53F2EFE89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B88675-AC52-41D2-9844-A3DAE0BC1B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Recherche d'information pour la pré-étude</t>
+  </si>
+  <si>
+    <t>Recherche d'information pour la pré-étude, début de la phase de design avec le développement de la partie driver de LEDs</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -578,9 +581,15 @@
       <c r="C6" s="3">
         <v>45148</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
@@ -943,11 +952,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B88675-AC52-41D2-9844-A3DAE0BC1B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628454B4-E079-408C-82BA-76F2A8FB28FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Recherche d'information pour la pré-étude, début de la phase de design avec le développement de la partie driver de LEDs</t>
+  </si>
+  <si>
+    <t>Dimensionnement du driver de LEDs et de la communication avec l'appareil photo Niknon D750</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -598,9 +601,15 @@
       <c r="C7" s="3">
         <v>45149</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
@@ -952,11 +961,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628454B4-E079-408C-82BA-76F2A8FB28FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30679D-BE1A-4329-9B07-59E41D3E6D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Dimensionnement du driver de LEDs et de la communication avec l'appareil photo Niknon D750</t>
+  </si>
+  <si>
+    <t>Choix du LCD et du rétro-éclairage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensionnement des systèmes de déclenchement d'appareils photo, </t>
   </si>
 </sst>
 </file>
@@ -495,11 +501,11 @@
   </sheetPr>
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.265625" customWidth="1"/>
     <col min="2" max="2" width="10.73046875" style="1"/>
@@ -629,9 +635,15 @@
       <c r="C9" s="3">
         <v>45151</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -640,9 +652,15 @@
       <c r="C10" s="7">
         <v>45152</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
@@ -961,11 +979,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30679D-BE1A-4329-9B07-59E41D3E6D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899137DE-55BD-4DC7-B998-1E692346709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dimensionnement des systèmes de déclenchement d'appareils photo, </t>
+  </si>
+  <si>
+    <t>Dimesionememet du driver de moteur et chagement du driver de LED de puissace, choix du PIC et meeting de deux heures</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -669,9 +672,15 @@
       <c r="C11" s="7">
         <v>45153</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
@@ -979,11 +988,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899137DE-55BD-4DC7-B998-1E692346709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C17AB-D878-4780-B35F-E395FFDF6D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -98,7 +98,10 @@
     <t xml:space="preserve">Dimensionnement des systèmes de déclenchement d'appareils photo, </t>
   </si>
   <si>
-    <t>Dimesionememet du driver de moteur et chagement du driver de LED de puissace, choix du PIC et meeting de deux heures</t>
+    <t>Dimensionememet du driver de moteur et chagement du driver de LED de puissace, choix du PIC et meeting de deux heures</t>
+  </si>
+  <si>
+    <t>Dimensionnement du driver de moteur et du PIC32MK</t>
   </si>
 </sst>
 </file>
@@ -504,8 +507,8 @@
   </sheetPr>
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -689,9 +692,15 @@
       <c r="C12" s="7">
         <v>45154</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="6">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
@@ -988,11 +997,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C17AB-D878-4780-B35F-E395FFDF6D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578C009-F421-4D4E-B17E-C52D5C791091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Dimensionnement du driver de moteur et du PIC32MK</t>
+  </si>
+  <si>
+    <t>Correction de détails sur le schéma et design PCB</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -710,8 +713,12 @@
         <v>45155</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
@@ -1001,7 +1008,7 @@
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578C009-F421-4D4E-B17E-C52D5C791091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60969BCF-9798-4721-9B80-65ACB082288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Correction de détails sur le schéma et design PCB</t>
+  </si>
+  <si>
+    <t>Design PCB, revue PCB par M.Zoubir et validatio PCB sur Eurocircuit</t>
+  </si>
+  <si>
+    <t>Réalisation de la BOM, ajout des composants hors PCB, début du design mécanique</t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -712,7 +718,9 @@
       <c r="C13" s="7">
         <v>45155</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <v>8</v>
+      </c>
       <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
@@ -727,9 +735,15 @@
       <c r="C14" s="7">
         <v>45156</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
@@ -740,7 +754,9 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
@@ -760,9 +776,15 @@
       <c r="C17" s="3">
         <v>45159</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
@@ -1004,11 +1026,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60969BCF-9798-4721-9B80-65ACB082288E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC974ACD-7509-4B2A-A097-B50F99AC05E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Réalisation de la BOM, ajout des composants hors PCB, début du design mécanique</t>
+  </si>
+  <si>
+    <t>Commande des composants, conception mécanique du boitier</t>
+  </si>
+  <si>
+    <t>Finition de la conception du boitier, meeting de 45 minutes</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,9 +799,15 @@
       <c r="C18" s="3">
         <v>45160</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
@@ -804,9 +816,15 @@
       <c r="C19" s="3">
         <v>45161</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
@@ -1026,11 +1044,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC974ACD-7509-4B2A-A097-B50F99AC05E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD709D59-9448-461A-9EC2-9143101DB080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Finition de la conception du boitier, meeting de 45 minutes</t>
+  </si>
+  <si>
+    <t>Réception du PCB, montage du PIC32MK sur le PCB, début de programmation (génération de PWM)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -833,9 +836,15 @@
       <c r="C20" s="3">
         <v>45162</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
@@ -1044,11 +1053,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD709D59-9448-461A-9EC2-9143101DB080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D1699-0B95-43A2-87D3-9ACAD41D4E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Réception du PCB, montage du PIC32MK sur le PCB, début de programmation (génération de PWM)</t>
+  </si>
+  <si>
+    <t>Programmation pour test des PWMs, montage de composants sur PCB</t>
   </si>
 </sst>
 </file>
@@ -525,8 +528,8 @@
   </sheetPr>
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -853,9 +856,15 @@
       <c r="C21" s="3">
         <v>45163</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
@@ -1053,11 +1062,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D1699-0B95-43A2-87D3-9ACAD41D4E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E93B38-B132-4F3B-A3E4-4ACF6DAC1A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Programmation pour test des PWMs, montage de composants sur PCB</t>
+  </si>
+  <si>
+    <t>Montage du PCB complet, programmation de test et mise en place du driver de LCD</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -873,9 +876,15 @@
       <c r="C22" s="3">
         <v>45164</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
@@ -1062,11 +1071,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E93B38-B132-4F3B-A3E4-4ACF6DAC1A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989755B-3C3A-45F7-89B4-6903F0EDDCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Montage du PCB complet, programmation de test et mise en place du driver de LCD</t>
+  </si>
+  <si>
+    <t>Programmation pour test du LCD, des LED et du driver de moteur pas à pas</t>
+  </si>
+  <si>
+    <t>Envoi du boitier à imprimer, test des optocoupleurs, test du contact Reed, programmation de l'affichage et des menus</t>
   </si>
 </sst>
 </file>
@@ -531,8 +537,8 @@
   </sheetPr>
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -876,12 +882,8 @@
       <c r="C22" s="3">
         <v>45164</v>
       </c>
-      <c r="D22" s="2">
-        <v>9</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5">
         <v>3</v>
       </c>
@@ -904,9 +906,15 @@
       <c r="C24" s="7">
         <v>45166</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="6">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
@@ -915,9 +923,15 @@
       <c r="C25" s="7">
         <v>45167</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="6">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
@@ -926,9 +940,15 @@
       <c r="C26" s="7">
         <v>45168</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="6">
+        <v>9</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
@@ -1071,11 +1091,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989755B-3C3A-45F7-89B4-6903F0EDDCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E572A4E-191E-4025-85DD-F5EFAAA0F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Envoi du boitier à imprimer, test des optocoupleurs, test du contact Reed, programmation de l'affichage et des menus</t>
+  </si>
+  <si>
+    <t>Programmation des menus et correction</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -957,9 +960,15 @@
       <c r="C27" s="7">
         <v>45169</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="D27" s="6">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
@@ -1091,11 +1100,11 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E572A4E-191E-4025-85DD-F5EFAAA0F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A2D399-6B34-4FA4-9488-DBC16DD1857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -134,7 +134,16 @@
     <t>Envoi du boitier à imprimer, test des optocoupleurs, test du contact Reed, programmation de l'affichage et des menus</t>
   </si>
   <si>
-    <t>Programmation des menus et correction</t>
+    <t>Programmation des menus et correction de bugs</t>
+  </si>
+  <si>
+    <t>Rattrappage du retard dans le rapport</t>
+  </si>
+  <si>
+    <t>CORRIGER HORTHOGRAPHE</t>
+  </si>
+  <si>
+    <t>Rattrappage du retard dans le rapport et programmation des menus</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -977,9 +986,15 @@
       <c r="C28" s="7">
         <v>45170</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="6">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
@@ -999,9 +1014,15 @@
       <c r="C30" s="7">
         <v>45172</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
@@ -1010,9 +1031,15 @@
       <c r="C31" s="3">
         <v>45173</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
@@ -1100,11 +1127,14 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>171</v>
+        <v>195</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A2D399-6B34-4FA4-9488-DBC16DD1857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A7535-69BE-4A2B-85C3-EC8607FCF3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Rattrappage du retard dans le rapport et programmation des menus</t>
+  </si>
+  <si>
+    <t>Programmation de la séquence, et des menus de configuration</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1048,9 +1051,15 @@
       <c r="C32" s="3">
         <v>45174</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="2">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
@@ -1127,14 +1136,14 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A7535-69BE-4A2B-85C3-EC8607FCF3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC7270-8F46-4545-8450-4DBA55D6F374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Programmation de la séquence, et des menus de configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d'un cable de commande d'appareil photo, </t>
+  </si>
+  <si>
+    <t>Test du déclenchement de l'appareil photo au musée, correction de bugs au niveau de la séquence des LEDs et programmation de la séquence complete</t>
   </si>
 </sst>
 </file>
@@ -552,8 +558,8 @@
   </sheetPr>
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -956,7 +962,7 @@
         <v>45168</v>
       </c>
       <c r="D26" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>31</v>
@@ -1068,9 +1074,15 @@
       <c r="C33" s="3">
         <v>45175</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
@@ -1079,9 +1091,15 @@
       <c r="C34" s="3">
         <v>45176</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
@@ -1136,14 +1154,14 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC7270-8F46-4545-8450-4DBA55D6F374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C43BC4-2DFB-4141-8022-5E39786A725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">Création d'un cable de commande d'appareil photo, </t>
   </si>
   <si>
-    <t>Test du déclenchement de l'appareil photo au musée, correction de bugs au niveau de la séquence des LEDs et programmation de la séquence complete</t>
+    <t>Test du déclenchement de l'appareil photo au palais de Rumine (musée), correction de bugs au niveau de la séquence des LEDs et programmation de la séquence complete</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
+++ b/doc/2309_AutomatisationPriseImageRTI-JOURNAL_v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\2309_AutomatisationPriseImageRTI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C43BC4-2DFB-4141-8022-5E39786A725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78141DDD-D3F9-446A-A843-B5CFF4E6617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -77,82 +77,94 @@
     <t>Nbr de café</t>
   </si>
   <si>
-    <t>Reception et analyse du cahier des charges, mise en place des documents de base, recherche d'informations par rapport à la puissance du moteur et des LEDs</t>
-  </si>
-  <si>
-    <t>Correction du planning, recherche d'informations et de composants pour la pré-étude, meeting d'une heure</t>
-  </si>
-  <si>
-    <t>Recherche d'information pour la pré-étude</t>
-  </si>
-  <si>
-    <t>Recherche d'information pour la pré-étude, début de la phase de design avec le développement de la partie driver de LEDs</t>
-  </si>
-  <si>
-    <t>Dimensionnement du driver de LEDs et de la communication avec l'appareil photo Niknon D750</t>
-  </si>
-  <si>
-    <t>Choix du LCD et du rétro-éclairage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimensionnement des systèmes de déclenchement d'appareils photo, </t>
-  </si>
-  <si>
-    <t>Dimensionememet du driver de moteur et chagement du driver de LED de puissace, choix du PIC et meeting de deux heures</t>
-  </si>
-  <si>
-    <t>Dimensionnement du driver de moteur et du PIC32MK</t>
-  </si>
-  <si>
-    <t>Correction de détails sur le schéma et design PCB</t>
-  </si>
-  <si>
-    <t>Design PCB, revue PCB par M.Zoubir et validatio PCB sur Eurocircuit</t>
-  </si>
-  <si>
-    <t>Réalisation de la BOM, ajout des composants hors PCB, début du design mécanique</t>
-  </si>
-  <si>
-    <t>Commande des composants, conception mécanique du boitier</t>
-  </si>
-  <si>
-    <t>Finition de la conception du boitier, meeting de 45 minutes</t>
-  </si>
-  <si>
-    <t>Réception du PCB, montage du PIC32MK sur le PCB, début de programmation (génération de PWM)</t>
-  </si>
-  <si>
-    <t>Programmation pour test des PWMs, montage de composants sur PCB</t>
-  </si>
-  <si>
-    <t>Montage du PCB complet, programmation de test et mise en place du driver de LCD</t>
-  </si>
-  <si>
-    <t>Programmation pour test du LCD, des LED et du driver de moteur pas à pas</t>
-  </si>
-  <si>
-    <t>Envoi du boitier à imprimer, test des optocoupleurs, test du contact Reed, programmation de l'affichage et des menus</t>
-  </si>
-  <si>
-    <t>Programmation des menus et correction de bugs</t>
-  </si>
-  <si>
-    <t>Rattrappage du retard dans le rapport</t>
-  </si>
-  <si>
-    <t>CORRIGER HORTHOGRAPHE</t>
-  </si>
-  <si>
-    <t>Rattrappage du retard dans le rapport et programmation des menus</t>
-  </si>
-  <si>
-    <t>Programmation de la séquence, et des menus de configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création d'un cable de commande d'appareil photo, </t>
-  </si>
-  <si>
-    <t>Test du déclenchement de l'appareil photo au palais de Rumine (musée), correction de bugs au niveau de la séquence des LEDs et programmation de la séquence complete</t>
+    <t>Programmation pour tester le LCD, les LED et le driver du moteur pas à pas.</t>
+  </si>
+  <si>
+    <t>Programmation des menus et correction de bugs.</t>
+  </si>
+  <si>
+    <t>Programmation de la séquence et des menus de configuration.</t>
+  </si>
+  <si>
+    <t>Création d'un câble de commande d'appareil photo.</t>
+  </si>
+  <si>
+    <t>Programmation des derniers points importants de la séquence.</t>
+  </si>
+  <si>
+    <t>Mise en service et mesures des différents composants critiques du système.</t>
+  </si>
+  <si>
+    <t>Finalisation de la documentation et du rapport.</t>
+  </si>
+  <si>
+    <t>Rendu du rapport.</t>
+  </si>
+  <si>
+    <t>Réception et analyse du cahier des charges, préparation des documents de base, recherche d'informations sur la puissance du moteur et des LEDs.</t>
+  </si>
+  <si>
+    <t>Correction du planning, recherche d'informations et de composants pour la pré-étude, réunion d'une heure.</t>
+  </si>
+  <si>
+    <t>Recherche d'informations pour la pré-étude.</t>
+  </si>
+  <si>
+    <t>Recherche d'informations pour la pré-étude, début de la phase de conception avec le développement de la partie driver des LEDs.</t>
+  </si>
+  <si>
+    <t>Dimensionnement du driver des LEDs et de la communication avec l'appareil photo Nikon D750.</t>
+  </si>
+  <si>
+    <t>Choix du LCD et du rétro-éclairage.</t>
+  </si>
+  <si>
+    <t>Dimensionnement des systèmes de déclenchement d'appareils photo.</t>
+  </si>
+  <si>
+    <t>Dimensionnement du driver de moteur et changement du driver de LED de puissance, choix du PIC et réunion de deux heures.</t>
+  </si>
+  <si>
+    <t>Dimensionnement du driver de moteur et du PIC32MK.</t>
+  </si>
+  <si>
+    <t>Correction de détails sur le schéma et conception du PCB.</t>
+  </si>
+  <si>
+    <t>Conception du PCB, revue du PCB par M. Zoubir et validation du PCB sur Eurocircuit.</t>
+  </si>
+  <si>
+    <t>Réalisation de la BOM, ajout des composants hors PCB, début du design mécanique.</t>
+  </si>
+  <si>
+    <t>Commande des composants, conception mécanique du boîtier.</t>
+  </si>
+  <si>
+    <t>Finalisation de la conception du boîtier, réunion de 45 minutes.</t>
+  </si>
+  <si>
+    <t>Réception du PCB, montage du PIC32MK sur le PCB, début de programmation (génération de PWM).</t>
+  </si>
+  <si>
+    <t>Programmation pour test des PWMs, montage de composants sur le PCB.</t>
+  </si>
+  <si>
+    <t>Montage du PCB complet, programmation de test et installation du driver LCD.</t>
+  </si>
+  <si>
+    <t>Envoi du boîtier à imprimer, test des optocoupleurs, essai du contact Reed, programmation de l'affichage et des menus.</t>
+  </si>
+  <si>
+    <t>Rattrapage du retard dans la rédaction du rapport.</t>
+  </si>
+  <si>
+    <t>Rattrapage du retard dans la rédaction du rapport et programmation des menus.</t>
+  </si>
+  <si>
+    <t>Test du déclenchement de l'appareil photo au palais de Rumine (musée), correction de bugs au niveau de la séquence des LEDs et programmation de la séquence complète.</t>
+  </si>
+  <si>
+    <t>Total cafés :</t>
   </si>
 </sst>
 </file>
@@ -245,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -272,6 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,8 +573,8 @@
   </sheetPr>
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -600,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -617,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -634,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
@@ -651,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>4</v>
@@ -668,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
@@ -696,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
@@ -713,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F10" s="9">
         <v>5</v>
@@ -730,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11" s="9">
         <v>4</v>
@@ -747,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F12" s="9">
         <v>4</v>
@@ -764,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
@@ -781,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -822,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5">
         <v>4</v>
@@ -839,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F18" s="5">
         <v>4</v>
@@ -856,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5">
         <v>3</v>
@@ -873,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -890,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F21" s="5">
         <v>3</v>
@@ -931,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F24" s="9">
         <v>4</v>
@@ -948,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F25" s="9">
         <v>5</v>
@@ -965,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F26" s="9">
         <v>4</v>
@@ -982,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F27" s="9">
         <v>5</v>
@@ -999,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F28" s="9">
         <v>5</v>
@@ -1027,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F30" s="9">
         <v>3</v>
@@ -1044,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F31" s="5">
         <v>5</v>
@@ -1058,10 +1073,10 @@
         <v>45174</v>
       </c>
       <c r="D32" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F32" s="5">
         <v>4</v>
@@ -1078,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F33" s="5">
         <v>3</v>
@@ -1095,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F34" s="5">
         <v>3</v>
@@ -1108,9 +1123,15 @@
       <c r="C35" s="3">
         <v>45177</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
@@ -1119,9 +1140,15 @@
       <c r="C36" s="3">
         <v>45178</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="2">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
@@ -1130,9 +1157,15 @@
       <c r="C37" s="3">
         <v>45179</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="2">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
@@ -1141,8 +1174,12 @@
       <c r="C38" s="7">
         <v>45180</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
@@ -1154,19 +1191,19 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D3:D39)</f>
-        <v>225</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
+        <v>253</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F40">
         <f>SUM(F3:F38)</f>
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>